--- a/biology/Médecine/Claude_Pinault/Claude_Pinault.xlsx
+++ b/biology/Médecine/Claude_Pinault/Claude_Pinault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Pinault est un écrivain français né en 1951, atteint brutalement d'un syndrome de Guillain-Barré subaigu de forme axonale à l'âge de 54 ans. Il a écrit, depuis sa guérison, sur le sujet.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Pinault devient tétraplégique en 48 heures et reste hospitalisé quatorze mois.
 Après un électromyogramme, le pronostic médical sera très réservé sur sa récupération. La myéline ainsi que l'axone de ses nerfs sont détruits.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Syndrome du bocal, Paris, Buchet-Chastel, 2009, 345 p. (OCLC 470967581)
 Avec Audrey Akoun, Kevin Finel, Malek A. Boukerchi, Blaise De Lanlay, Jessica Hollender, Vincent Houba, Isabelle Pailleau, Joanna Quélen et Maud Simon, Le laboratoire du bonheur : Sa formule en 7 ingrédients, Solar, 2014, 224 p. (ISBN 978-2-263-06478-4)
